--- a/Lastenheft/systemtest.xlsx
+++ b/Lastenheft/systemtest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Documents\projekt\Documentation\Lastenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>Nr.</t>
   </si>
@@ -50,18 +50,12 @@
     <t>Öffnen der Software -&gt; Eingabe der Login-Daten -&gt; Button "Anmelden" anklicken</t>
   </si>
   <si>
-    <t>Erfolgreicher Login und anzeigen der Startseite</t>
-  </si>
-  <si>
     <t>Einloggen schlägt fehl</t>
   </si>
   <si>
     <t>Öffnen der Software -&gt; Eingabe der falschen Login-Daten -&gt; Button "Anmelden" anklicken</t>
   </si>
   <si>
-    <t>Login schlägt fehl und Fehlermeldung wird angezeigt</t>
-  </si>
-  <si>
     <t>Einloggen als Wähler</t>
   </si>
   <si>
@@ -83,18 +77,12 @@
     <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Europawahl/Landtagswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Abbrechen" anklicken</t>
   </si>
   <si>
-    <t>Wahl anlegen wurde abgebrochen</t>
-  </si>
-  <si>
     <t>Wahl anlegen schlägt fehl</t>
   </si>
   <si>
     <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Europawahl/Landtagswahl -&gt; Liste der Parteien wird nicht importiert -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
   </si>
   <si>
-    <t>Wahl anlegen ist fehlgeschlagen</t>
-  </si>
-  <si>
     <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Europawahl/Landtagswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
   </si>
   <si>
@@ -125,24 +113,15 @@
     <t>Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Speichern" anklicken</t>
   </si>
   <si>
-    <t>Wahl ist freigegeben</t>
-  </si>
-  <si>
     <t>Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Löschen" anklicken</t>
   </si>
   <si>
-    <t>Wahl wurde abgelehnt</t>
-  </si>
-  <si>
     <t>Wahl bearbeiten</t>
   </si>
   <si>
     <t>Eine Wahl auswählen -&gt; Button "Bearbeiten" anklicken</t>
   </si>
   <si>
-    <t>Wahl kann jetzt bearbeitet werden</t>
-  </si>
-  <si>
     <t>Wahl bearbeiten (Moderator/Wahlleiter)</t>
   </si>
   <si>
@@ -155,9 +134,6 @@
     <t>Einstellungen -&gt; "Verbindung berarbeiten" auswählen -&gt; Zu bearbeitende Verbindung auswählen -&gt; Neue Verbingsdaten eingeben -&gt; Button "Speichern" anklicken</t>
   </si>
   <si>
-    <t>Verbindung wurde bearbeitet</t>
-  </si>
-  <si>
     <t>Einstellen der gewünschten Ebene (Admin)</t>
   </si>
   <si>
@@ -167,9 +143,6 @@
     <t>Einstellungen -&gt; "Ebene auswählen" wählen -&gt; Gewünschte Ebene auswählen -&gt; Button "Speichern" anklicken</t>
   </si>
   <si>
-    <t>Ebene wurde ausgewählt</t>
-  </si>
-  <si>
     <t>Bundestagswahl durchführen (Wähler)</t>
   </si>
   <si>
@@ -179,9 +152,6 @@
     <t>Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Erststimme abgeben -&gt; Zweitstimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; Button "Bestätigen" anklicken</t>
   </si>
   <si>
-    <t>Wähler hat seine Stimme abgegeben</t>
-  </si>
-  <si>
     <t>Europawahl durchführen (Wähler)</t>
   </si>
   <si>
@@ -191,9 +161,6 @@
     <t>Europawahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; Button "Bestätigen" anklicken</t>
   </si>
   <si>
-    <t>Wähler hat ungültige Stimme abgegeben</t>
-  </si>
-  <si>
     <t>Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Erststimme oder Zweitstimme abgeben  -&gt; Button "Auswahl bestätigen" anklicken -&gt; Button "Bestätigen" anklicken</t>
   </si>
   <si>
@@ -285,6 +252,54 @@
   </si>
   <si>
     <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Parteien wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Kandidaten wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Wähler wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Falsche Daten eingegeben".</t>
+  </si>
+  <si>
+    <t>Wahl anlegen wurde abgebrochen. Zurück zur Startseite.</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Themen wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahl ist freigegeben. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
+  </si>
+  <si>
+    <t>Wahl wurde abgelehnt. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
+  </si>
+  <si>
+    <t>Verbindung wurde bearbeitet.</t>
+  </si>
+  <si>
+    <t>Ebene wurde ausgewählt.</t>
+  </si>
+  <si>
+    <t>Wahl kann jetzt bearbeitet werden.</t>
+  </si>
+  <si>
+    <t>Moderator: Wahl wurde angelegt, nun muss sie vom Wahlleiter freigegeben werden.                                                                                                                                               Wahlleiter: Wahl wurde angelegt.</t>
+  </si>
+  <si>
+    <t>Login schlägt fehl und Fehlermeldung wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Erfolgreicher Login und anzeigen der Startseite.</t>
+  </si>
+  <si>
+    <t>Wähler hat seine Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
+  </si>
+  <si>
+    <t>Wähler hat ungültige Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
   </si>
 </sst>
 </file>
@@ -329,8 +344,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,16 +754,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -762,16 +805,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -779,16 +822,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -796,16 +839,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -813,16 +856,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -830,16 +873,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -847,16 +890,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -864,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -881,16 +924,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -898,16 +941,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -915,16 +958,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -932,16 +975,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -949,16 +992,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -966,16 +1009,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -983,16 +1026,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1000,16 +1043,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1017,16 +1060,16 @@
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1034,16 +1077,16 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1051,16 +1094,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1068,16 +1111,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1085,16 +1128,16 @@
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1102,16 +1145,16 @@
         <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1119,16 +1162,16 @@
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1136,16 +1179,16 @@
         <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1153,16 +1196,16 @@
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1170,16 +1213,16 @@
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1187,16 +1230,16 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1204,16 +1247,16 @@
         <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
